--- a/overwrite_formula.xlsx
+++ b/overwrite_formula.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janmarvingarbuszus/Source/openxlsx-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0533C21B-D976-8C43-AB24-4CF1C45E08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047D02EE-AC58-5441-988F-7BE90033F890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{89E41D2F-BDFD-F240-9E35-1F9AE354A01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,9 +390,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <f ca="1">TODAY()</f>
-        <v>44891</v>
+      <c r="A1" s="1" t="str">
+        <f>"test"</f>
+        <v>test</v>
       </c>
     </row>
   </sheetData>
